--- a/approaches/agora_data/our_ground_truth/Github GetOrganizationRepositories/response_property_constraints.xlsx
+++ b/approaches/agora_data/our_ground_truth/Github GetOrganizationRepositories/response_property_constraints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ThacSi\API-Testing\Eval\agora_data\our_ground_truth\Github GetOrganizationRepositories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6C1F91-6194-4A55-BF6E-7A388F1881D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D76F8AA-7ADD-46EE-8DC9-EF8E841E51B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="23235" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="response_property_constraints" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="151">
   <si>
     <t>operation</t>
   </si>
@@ -374,6 +374,105 @@
   </si>
   <si>
     <t>minimal-repository</t>
+  </si>
+  <si>
+    <t>{"type": "string", "example": "http://api.github.com/repos/octocat/Hello-World/{archive_format}{/ref}"}</t>
+  </si>
+  <si>
+    <t>{"type": "string", "format": "uri"}</t>
+  </si>
+  <si>
+    <t>{"type": "string", "example": "http://api.github.com/repos/octocat/Hello-World/git/commits{/sha}"}</t>
+  </si>
+  <si>
+    <t>{"type": "string", "example": "http://api.github.com/repos/octocat/Hello-World/collaborators{/collaborator}"}</t>
+  </si>
+  <si>
+    <t>{"type": "string", "format": "date-time"}</t>
+  </si>
+  <si>
+    <t>{"type": "string", "example": "http://api.github.com/repos/octocat/Hello-World/git/tags{/sha}"}</t>
+  </si>
+  <si>
+    <t>{"type": "string", "example": "http://api.github.com/repos/octocat/Hello-World/assignees{/user}"}</t>
+  </si>
+  <si>
+    <t>{"type": "string", "example": "http://api.github.com/repos/octocat/Hello-World/issues/comments{/number}"}</t>
+  </si>
+  <si>
+    <t>{"type": "string", "example": "http://api.github.com/repos/octocat/Hello-World/pulls{/number}"}</t>
+  </si>
+  <si>
+    <t>{"type": "string", "example": "http://api.github.com/repos/octocat/Hello-World/compare/{base}...{head}"}</t>
+  </si>
+  <si>
+    <t>{"type": "string", "example": "http://api.github.com/repos/octocat/Hello-World/keys{/key_id}"}</t>
+  </si>
+  <si>
+    <t>{"type": "string", "example": "http://api.github.com/repos/octocat/Hello-World/git/trees{/sha}"}</t>
+  </si>
+  <si>
+    <t>{"type": "string", "example": "http://api.github.com/repos/octocat/Hello-World/commits{/sha}"}</t>
+  </si>
+  <si>
+    <t>{"type": "string", "example": "http://api.github.com/repos/octocat/Hello-World/git/blobs{/sha}"}</t>
+  </si>
+  <si>
+    <t>{"type": "string", "example": "http://api.github.com/repos/octocat/Hello-World/labels{/name}"}</t>
+  </si>
+  <si>
+    <t>{"type": "string", "example": "http://api.github.com/repos/octocat/Hello-World/statuses/{sha}"}</t>
+  </si>
+  <si>
+    <t>{"type": "string", "example": "http://api.github.com/repos/octocat/Hello-World/branches{/branch}"}</t>
+  </si>
+  <si>
+    <t>{"type": "string", "example": "http://api.github.com/repos/octocat/Hello-World/comments{/number}"}</t>
+  </si>
+  <si>
+    <t>{"type": "string", "example": "http://api.github.com/repos/octocat/Hello-World/notifications{?since,all,participating}"}</t>
+  </si>
+  <si>
+    <t>{"type": "string", "example": "http://api.github.com/repos/octocat/Hello-World/contents/{+path}"}</t>
+  </si>
+  <si>
+    <t>{"type": "string", "example": "http://api.github.com/repos/octocat/Hello-World/releases{/id}"}</t>
+  </si>
+  <si>
+    <t>{"type": "string", "example": "http://api.github.com/repos/octocat/Hello-World/milestones{/number}"}</t>
+  </si>
+  <si>
+    <t>{"type": "string", "example": "http://api.github.com/repos/octocat/Hello-World/git/refs{/sha}"}</t>
+  </si>
+  <si>
+    <t>{"type": "string", "example": "http://api.github.com/repos/octocat/Hello-World/issues{/number}"}</t>
+  </si>
+  <si>
+    <t>{"type": "string", "example": "http://api.github.com/repos/octocat/Hello-World/issues/events{/number}"}</t>
+  </si>
+  <si>
+    <t>starred_at</t>
+  </si>
+  <si>
+    <t>{"type": "string", "example": "\"2020-07-09T00:17:55Z\""}</t>
+  </si>
+  <si>
+    <t>has_downloads</t>
+  </si>
+  <si>
+    <t>Whether downloads are enabled, schema: {"type": "boolean", "example": true}</t>
+  </si>
+  <si>
+    <t>homepage</t>
+  </si>
+  <si>
+    <t>{"type": "string", "example": "\"2020-07-09T00:17:42Z\""}</t>
+  </si>
+  <si>
+    <t>visibility</t>
+  </si>
+  <si>
+    <t>The repository visibility: public, private, or internal</t>
   </si>
 </sst>
 </file>
@@ -1214,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2061,10 +2160,640 @@
         <v>117</v>
       </c>
       <c r="C60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" t="s">
+        <v>101</v>
+      </c>
+      <c r="D68" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>117</v>
+      </c>
+      <c r="C71" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" t="s">
+        <v>47</v>
+      </c>
+      <c r="D72" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s">
+        <v>117</v>
+      </c>
+      <c r="C73" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>117</v>
+      </c>
+      <c r="C74" t="s">
+        <v>103</v>
+      </c>
+      <c r="D74" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
+        <v>117</v>
+      </c>
+      <c r="C75" t="s">
+        <v>51</v>
+      </c>
+      <c r="D75" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" t="s">
+        <v>117</v>
+      </c>
+      <c r="C76" t="s">
+        <v>58</v>
+      </c>
+      <c r="D76" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" t="s">
+        <v>117</v>
+      </c>
+      <c r="C77" t="s">
+        <v>78</v>
+      </c>
+      <c r="D77" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" t="s">
+        <v>117</v>
+      </c>
+      <c r="C78" t="s">
+        <v>45</v>
+      </c>
+      <c r="D78" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" t="s">
+        <v>117</v>
+      </c>
+      <c r="C79" t="s">
+        <v>111</v>
+      </c>
+      <c r="D79" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" t="s">
+        <v>117</v>
+      </c>
+      <c r="C80" t="s">
+        <v>37</v>
+      </c>
+      <c r="D80" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" t="s">
+        <v>117</v>
+      </c>
+      <c r="C81" t="s">
+        <v>76</v>
+      </c>
+      <c r="D81" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" t="s">
+        <v>117</v>
+      </c>
+      <c r="C82" t="s">
+        <v>93</v>
+      </c>
+      <c r="D82" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" t="s">
+        <v>117</v>
+      </c>
+      <c r="C83" t="s">
+        <v>53</v>
+      </c>
+      <c r="D83" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" t="s">
+        <v>117</v>
+      </c>
+      <c r="C84" t="s">
+        <v>113</v>
+      </c>
+      <c r="D84" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" t="s">
+        <v>117</v>
+      </c>
+      <c r="C85" t="s">
+        <v>97</v>
+      </c>
+      <c r="D85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" t="s">
+        <v>117</v>
+      </c>
+      <c r="C86" t="s">
+        <v>39</v>
+      </c>
+      <c r="D86" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" t="s">
+        <v>117</v>
+      </c>
+      <c r="C87" t="s">
+        <v>108</v>
+      </c>
+      <c r="D87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88" t="s">
+        <v>95</v>
+      </c>
+      <c r="D88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
+        <v>117</v>
+      </c>
+      <c r="C89" t="s">
         <v>9</v>
       </c>
-      <c r="D60" t="s">
-        <v>107</v>
+      <c r="D89" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" t="s">
+        <v>117</v>
+      </c>
+      <c r="C90" t="s">
+        <v>91</v>
+      </c>
+      <c r="D90" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" t="s">
+        <v>117</v>
+      </c>
+      <c r="C91" t="s">
+        <v>43</v>
+      </c>
+      <c r="D91" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" t="s">
+        <v>117</v>
+      </c>
+      <c r="C92" t="s">
+        <v>55</v>
+      </c>
+      <c r="D92" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C93" t="s">
+        <v>84</v>
+      </c>
+      <c r="D93" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" t="s">
+        <v>117</v>
+      </c>
+      <c r="C94" t="s">
+        <v>49</v>
+      </c>
+      <c r="D94" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" t="s">
+        <v>117</v>
+      </c>
+      <c r="C95" t="s">
+        <v>88</v>
+      </c>
+      <c r="D95" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96" t="s">
+        <v>82</v>
+      </c>
+      <c r="D96" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" t="s">
+        <v>117</v>
+      </c>
+      <c r="C97" t="s">
+        <v>62</v>
+      </c>
+      <c r="D97" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" t="s">
+        <v>117</v>
+      </c>
+      <c r="C98" t="s">
+        <v>72</v>
+      </c>
+      <c r="D98" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" t="s">
+        <v>117</v>
+      </c>
+      <c r="C99" t="s">
+        <v>99</v>
+      </c>
+      <c r="D99" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" t="s">
+        <v>117</v>
+      </c>
+      <c r="C100" t="s">
+        <v>70</v>
+      </c>
+      <c r="D100" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" t="s">
+        <v>143</v>
+      </c>
+      <c r="D101" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>145</v>
+      </c>
+      <c r="D102" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>147</v>
+      </c>
+      <c r="D103" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>143</v>
+      </c>
+      <c r="D104" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>149</v>
+      </c>
+      <c r="D105" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
